--- a/road-map.xlsx
+++ b/road-map.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t xml:space="preserve">ROAD MAP DE ESTUDOS</t>
   </si>
@@ -86,6 +86,11 @@
   </si>
   <si>
     <t xml:space="preserve">JAVASCRIPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promisses
+Async/Await
+</t>
   </si>
   <si>
     <t xml:space="preserve">NODEJS</t>
@@ -555,7 +560,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -838,7 +843,9 @@
       <c r="B6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="28"/>
@@ -883,7 +890,7 @@
     </row>
     <row r="7" s="19" customFormat="true" ht="60.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -930,7 +937,7 @@
     </row>
     <row r="8" s="19" customFormat="true" ht="60.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -977,7 +984,7 @@
     </row>
     <row r="9" s="19" customFormat="true" ht="60.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -1024,7 +1031,7 @@
     </row>
     <row r="10" s="19" customFormat="true" ht="60.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -1071,7 +1078,7 @@
     </row>
     <row r="11" s="19" customFormat="true" ht="60.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
